--- a/va_facility_data_2025-02-20/Pierre VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pierre%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pierre VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pierre%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf09b7fa45cc04ef7a0b9b96ddc89acc8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rebd2e7d376654fb7b552802976741257"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R332be4a5180f42ce94d5f903760b3d5c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raf045c56f8cf4daf845419ffcfbae351"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rba09ff79140c43a99ade8bf07839ffdc"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb4adf8c80360493283c4770d7209b78d"/>
   </x:sheets>
 </x:workbook>
 </file>
